--- a/NEW HR/DONE/MAURICIO, MARIZIEL.xlsx
+++ b/NEW HR/DONE/MAURICIO, MARIZIEL.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -643,6 +643,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -655,20 +664,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1365,7 +1365,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1408,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1472,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1532,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1598,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1661,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1759,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,7 +1818,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1883,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1926,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2001,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2187,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2253,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2311,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2377,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2433,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2508,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2551,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2617,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2673,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2771,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2834,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3311,9 +3311,9 @@
   <dimension ref="A2:M139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A75" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A84" activePane="bottomLeft"/>
       <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
+      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3343,14 +3343,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3361,14 +3361,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3381,14 +3381,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3414,18 +3414,18 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3472,7 +3472,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3482,7 +3482,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>88.75</v>
+        <v>91.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5133,13 +5133,15 @@
       <c r="B90" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
@@ -5192,19 +5194,25 @@
       <c r="A93" s="40">
         <v>45292</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
+      <c r="B93" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="49">
+        <v>45317</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
@@ -5944,17 +5952,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6023,14 +6031,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6044,17 +6052,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6068,17 +6076,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6104,18 +6112,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/DONE/MAURICIO, MARIZIEL.xlsx
+++ b/NEW HR/DONE/MAURICIO, MARIZIEL.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>12/18-22/2023</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>02/06-08/2024</t>
   </si>
 </sst>
 </file>
@@ -643,15 +649,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -664,11 +661,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1365,7 +1371,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1414,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1478,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1538,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1604,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1667,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1765,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,7 +1824,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1889,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1932,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2007,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2193,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2259,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2317,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2383,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2439,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2514,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2557,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2623,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2679,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2777,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2840,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3343,14 +3349,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3361,14 +3367,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3381,14 +3387,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3414,18 +3420,18 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3482,7 +3488,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>91.25</v>
+        <v>88.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5215,8 +5221,12 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="20"/>
+      <c r="A94" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
@@ -5225,13 +5235,19 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H94" s="39"/>
+      <c r="H94" s="39">
+        <v>3</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
+      <c r="K94" s="20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45352</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5247,7 +5263,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45383</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5263,7 +5281,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45413</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5279,7 +5299,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45444</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5295,7 +5317,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45474</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5311,7 +5335,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45505</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5327,7 +5353,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45536</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5343,7 +5371,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45566</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5359,7 +5389,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45597</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5375,7 +5407,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45627</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -5952,17 +5986,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6031,14 +6065,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6052,17 +6086,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57" t="str">
+      <c r="F3" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6076,17 +6110,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6112,18 +6146,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -8215,7 +8249,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
